--- a/results/mp/logistic/corona/confidence/210/desired-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/desired-0.5/avg_0.004_scores.xlsx
@@ -43,30 +43,30 @@
     <t>crisis</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>die</t>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>panic</t>
   </si>
   <si>
     <t>fears</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
     <t>drop</t>
   </si>
   <si>
+    <t>emergency</t>
+  </si>
+  <si>
     <t>low</t>
   </si>
   <si>
@@ -79,145 +79,145 @@
     <t>demand</t>
   </si>
   <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
     <t>of</t>
   </si>
   <si>
-    <t>co</t>
-  </si>
-  <si>
     <t>the</t>
   </si>
   <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>your</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
     <t>to</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>your</t>
-  </si>
-  <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -586,7 +586,7 @@
         <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -644,13 +644,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8321917808219178</v>
+        <v>0.8458904109589042</v>
       </c>
       <c r="C3">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D3">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -662,19 +662,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K3">
-        <v>0.9782608695652174</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -694,13 +694,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7941176470588235</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="C4">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -744,13 +744,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.75</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="C5">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -768,13 +768,13 @@
         <v>29</v>
       </c>
       <c r="K5">
-        <v>0.9444444444444444</v>
+        <v>0.925</v>
       </c>
       <c r="L5">
-        <v>34</v>
+        <v>111</v>
       </c>
       <c r="M5">
-        <v>34</v>
+        <v>111</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -794,13 +794,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7105263157894737</v>
+        <v>0.7352941176470589</v>
       </c>
       <c r="C6">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D6">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -812,19 +812,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K6">
-        <v>0.9416666666666667</v>
+        <v>0.8943661971830986</v>
       </c>
       <c r="L6">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="M6">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -844,13 +844,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7027027027027027</v>
+        <v>0.6031746031746031</v>
       </c>
       <c r="C7">
-        <v>26</v>
+        <v>114</v>
       </c>
       <c r="D7">
-        <v>26</v>
+        <v>114</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K7">
-        <v>0.9393939393939394</v>
+        <v>0.8903394255874674</v>
       </c>
       <c r="L7">
-        <v>31</v>
+        <v>341</v>
       </c>
       <c r="M7">
-        <v>31</v>
+        <v>341</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -886,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -894,13 +894,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5490196078431373</v>
+        <v>0.560077519379845</v>
       </c>
       <c r="C8">
-        <v>28</v>
+        <v>289</v>
       </c>
       <c r="D8">
-        <v>28</v>
+        <v>289</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -912,19 +912,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>23</v>
+        <v>227</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K8">
-        <v>0.8955613577023499</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L8">
-        <v>343</v>
+        <v>32</v>
       </c>
       <c r="M8">
-        <v>343</v>
+        <v>32</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>40</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -944,13 +944,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.544973544973545</v>
+        <v>0.5490196078431373</v>
       </c>
       <c r="C9">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="D9">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K9">
-        <v>0.8936170212765957</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L9">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="M9">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -986,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -994,13 +994,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5116279069767442</v>
+        <v>0.5084745762711864</v>
       </c>
       <c r="C10">
-        <v>264</v>
+        <v>30</v>
       </c>
       <c r="D10">
-        <v>264</v>
+        <v>30</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>252</v>
+        <v>29</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K10">
-        <v>0.8888888888888888</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L10">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="M10">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1036,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1044,13 +1044,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.4406779661016949</v>
+        <v>0.3733333333333334</v>
       </c>
       <c r="C11">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D11">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1062,19 +1062,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>35</v>
       </c>
       <c r="K11">
-        <v>0.8839285714285714</v>
+        <v>0.8828125</v>
       </c>
       <c r="L11">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="M11">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1086,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1094,13 +1094,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.2751677852348993</v>
+        <v>0.3221476510067114</v>
       </c>
       <c r="C12">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D12">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1112,19 +1112,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>36</v>
       </c>
       <c r="K12">
-        <v>0.8679245283018868</v>
+        <v>0.8773584905660378</v>
       </c>
       <c r="L12">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M12">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1144,13 +1144,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.2638888888888889</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="C13">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D13">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1162,19 +1162,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K13">
-        <v>0.8661971830985915</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="L13">
-        <v>123</v>
+        <v>50</v>
       </c>
       <c r="M13">
-        <v>123</v>
+        <v>50</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1194,13 +1194,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.1349206349206349</v>
+        <v>0.1587301587301587</v>
       </c>
       <c r="C14">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D14">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1212,19 +1212,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>38</v>
       </c>
       <c r="K14">
-        <v>0.8658536585365854</v>
+        <v>0.8604651162790697</v>
       </c>
       <c r="L14">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="M14">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1236,7 +1236,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1244,13 +1244,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.09919571045576407</v>
+        <v>0.09115281501340483</v>
       </c>
       <c r="C15">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D15">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1262,19 +1262,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>39</v>
       </c>
       <c r="K15">
-        <v>0.8604651162790697</v>
+        <v>0.851063829787234</v>
       </c>
       <c r="L15">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M15">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1294,37 +1294,37 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.01269393511988716</v>
+        <v>0.01944264419961115</v>
       </c>
       <c r="C16">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="D16">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="E16">
-        <v>0.37</v>
+        <v>0.26</v>
       </c>
       <c r="F16">
-        <v>0.63</v>
+        <v>0.74</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
       </c>
       <c r="H16">
-        <v>2100</v>
+        <v>3026</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>40</v>
       </c>
       <c r="K16">
-        <v>0.8448275862068966</v>
+        <v>0.85</v>
       </c>
       <c r="L16">
-        <v>49</v>
+        <v>136</v>
       </c>
       <c r="M16">
-        <v>49</v>
+        <v>136</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1344,37 +1344,37 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.01267427122940431</v>
+        <v>0.01695713612812058</v>
       </c>
       <c r="C17">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D17">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="E17">
-        <v>0.29</v>
+        <v>0.36</v>
       </c>
       <c r="F17">
-        <v>0.71</v>
+        <v>0.64</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
       </c>
       <c r="H17">
-        <v>2337</v>
+        <v>2087</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>41</v>
       </c>
       <c r="K17">
-        <v>0.84375</v>
+        <v>0.8484848484848485</v>
       </c>
       <c r="L17">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="M17">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1394,37 +1394,37 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.009041007426541814</v>
+        <v>0.01311336717428088</v>
       </c>
       <c r="C18">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D18">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E18">
-        <v>0.26</v>
+        <v>0.33</v>
       </c>
       <c r="F18">
-        <v>0.74</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
       </c>
       <c r="H18">
-        <v>3069</v>
+        <v>2333</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K18">
-        <v>0.84375</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L18">
-        <v>135</v>
+        <v>33</v>
       </c>
       <c r="M18">
-        <v>135</v>
+        <v>33</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1444,37 +1444,37 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.007452441655226515</v>
+        <v>0.009028459273797841</v>
       </c>
       <c r="C19">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D19">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="E19">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
       <c r="F19">
-        <v>0.37</v>
+        <v>0.4</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
       </c>
       <c r="H19">
-        <v>5061</v>
+        <v>5049</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>43</v>
       </c>
       <c r="K19">
-        <v>0.8205128205128205</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L19">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="M19">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1494,37 +1494,37 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.005824790307548928</v>
+        <v>0.006729200652528548</v>
       </c>
       <c r="C20">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D20">
-        <v>61</v>
+        <v>125</v>
       </c>
       <c r="E20">
-        <v>0.59</v>
+        <v>0.74</v>
       </c>
       <c r="F20">
-        <v>0.41</v>
+        <v>0.26</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
       </c>
       <c r="H20">
-        <v>4267</v>
+        <v>4871</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>44</v>
       </c>
       <c r="K20">
-        <v>0.7936507936507936</v>
+        <v>0.8125</v>
       </c>
       <c r="L20">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="M20">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1544,13 +1544,13 @@
         <v>45</v>
       </c>
       <c r="K21">
-        <v>0.7916666666666666</v>
+        <v>0.8</v>
       </c>
       <c r="L21">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M21">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1570,13 +1570,13 @@
         <v>46</v>
       </c>
       <c r="K22">
-        <v>0.7714285714285715</v>
+        <v>0.775</v>
       </c>
       <c r="L22">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M22">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1588,7 +1588,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1596,13 +1596,13 @@
         <v>47</v>
       </c>
       <c r="K23">
-        <v>0.7441176470588236</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="L23">
-        <v>253</v>
+        <v>48</v>
       </c>
       <c r="M23">
-        <v>253</v>
+        <v>48</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1614,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>87</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1622,13 +1622,13 @@
         <v>48</v>
       </c>
       <c r="K24">
-        <v>0.7322175732217573</v>
+        <v>0.7588235294117647</v>
       </c>
       <c r="L24">
-        <v>175</v>
+        <v>258</v>
       </c>
       <c r="M24">
-        <v>175</v>
+        <v>258</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1640,7 +1640,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>64</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1648,13 +1648,13 @@
         <v>49</v>
       </c>
       <c r="K25">
-        <v>0.725</v>
+        <v>0.7517006802721088</v>
       </c>
       <c r="L25">
-        <v>29</v>
+        <v>221</v>
       </c>
       <c r="M25">
-        <v>29</v>
+        <v>222</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1663,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25">
-        <v>11</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1674,25 +1674,25 @@
         <v>50</v>
       </c>
       <c r="K26">
-        <v>0.7235494880546075</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="L26">
-        <v>212</v>
+        <v>26</v>
       </c>
       <c r="M26">
-        <v>214</v>
+        <v>26</v>
       </c>
       <c r="N26">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>81</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1700,13 +1700,13 @@
         <v>51</v>
       </c>
       <c r="K27">
-        <v>0.7058823529411765</v>
+        <v>0.7230769230769231</v>
       </c>
       <c r="L27">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="M27">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1718,7 +1718,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1726,13 +1726,13 @@
         <v>52</v>
       </c>
       <c r="K28">
-        <v>0.7</v>
+        <v>0.7196652719665272</v>
       </c>
       <c r="L28">
-        <v>35</v>
+        <v>172</v>
       </c>
       <c r="M28">
-        <v>35</v>
+        <v>172</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1744,7 +1744,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>15</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1752,13 +1752,13 @@
         <v>53</v>
       </c>
       <c r="K29">
-        <v>0.6914893617021277</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="L29">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="M29">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1778,13 +1778,13 @@
         <v>54</v>
       </c>
       <c r="K30">
-        <v>0.651685393258427</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L30">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="M30">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1796,7 +1796,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1804,13 +1804,13 @@
         <v>55</v>
       </c>
       <c r="K31">
-        <v>0.6307692307692307</v>
+        <v>0.651685393258427</v>
       </c>
       <c r="L31">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="M31">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1822,7 +1822,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1830,13 +1830,13 @@
         <v>56</v>
       </c>
       <c r="K32">
-        <v>0.6285714285714286</v>
+        <v>0.6274509803921569</v>
       </c>
       <c r="L32">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="M32">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1848,7 +1848,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1856,13 +1856,13 @@
         <v>57</v>
       </c>
       <c r="K33">
-        <v>0.5342465753424658</v>
+        <v>0.5256410256410257</v>
       </c>
       <c r="L33">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M33">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1874,7 +1874,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1882,13 +1882,13 @@
         <v>58</v>
       </c>
       <c r="K34">
-        <v>0.5</v>
+        <v>0.410958904109589</v>
       </c>
       <c r="L34">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="M34">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1900,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1908,25 +1908,25 @@
         <v>59</v>
       </c>
       <c r="K35">
-        <v>0.4406779661016949</v>
+        <v>0.05677655677655678</v>
       </c>
       <c r="L35">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="M35">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="N35">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35">
-        <v>33</v>
+        <v>515</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1934,25 +1934,25 @@
         <v>60</v>
       </c>
       <c r="K36">
-        <v>0.4375</v>
+        <v>0.04933110367892977</v>
       </c>
       <c r="L36">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="M36">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="N36">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36">
-        <v>36</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1960,25 +1960,25 @@
         <v>61</v>
       </c>
       <c r="K37">
-        <v>0.05301645338208409</v>
+        <v>0.02735562310030395</v>
       </c>
       <c r="L37">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M37">
         <v>29</v>
       </c>
       <c r="N37">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37">
-        <v>518</v>
+        <v>960</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1986,25 +1986,25 @@
         <v>62</v>
       </c>
       <c r="K38">
-        <v>0.0408673894912427</v>
+        <v>0.02521640948438088</v>
       </c>
       <c r="L38">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="M38">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="N38">
-        <v>0.98</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="O38">
-        <v>0.02000000000000002</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="P38" t="b">
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>1150</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -2012,103 +2012,103 @@
         <v>63</v>
       </c>
       <c r="K39">
-        <v>0.01654757427604362</v>
+        <v>0.02391441157960982</v>
       </c>
       <c r="L39">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="M39">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="N39">
-        <v>0.76</v>
+        <v>0.88</v>
       </c>
       <c r="O39">
-        <v>0.24</v>
+        <v>0.12</v>
       </c>
       <c r="P39" t="b">
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>2615</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="K40">
-        <v>0.01465863453815261</v>
+        <v>0.01853717509570824</v>
       </c>
       <c r="L40">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="M40">
-        <v>89</v>
+        <v>125</v>
       </c>
       <c r="N40">
-        <v>0.82</v>
+        <v>0.74</v>
       </c>
       <c r="O40">
-        <v>0.18</v>
+        <v>0.26</v>
       </c>
       <c r="P40" t="b">
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>4907</v>
+        <v>4871</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K41">
-        <v>0.01437371663244353</v>
+        <v>0.01729106628242075</v>
       </c>
       <c r="L41">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="M41">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="N41">
-        <v>0.78</v>
+        <v>0.72</v>
       </c>
       <c r="O41">
-        <v>0.22</v>
+        <v>0.28</v>
       </c>
       <c r="P41" t="b">
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>2400</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="K42">
-        <v>0.01287302516091281</v>
+        <v>0.01674340728338217</v>
       </c>
       <c r="L42">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="M42">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="N42">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="O42">
-        <v>0.37</v>
+        <v>0.11</v>
       </c>
       <c r="P42" t="b">
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>5061</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -2116,77 +2116,77 @@
         <v>66</v>
       </c>
       <c r="K43">
-        <v>0.01255230125523013</v>
+        <v>0.01383212826155297</v>
       </c>
       <c r="L43">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="M43">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="N43">
-        <v>0.88</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="O43">
-        <v>0.12</v>
+        <v>0.3100000000000001</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>2360</v>
+        <v>3137</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="K44">
-        <v>0.00973006905210295</v>
+        <v>0.01367454580972846</v>
       </c>
       <c r="L44">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="M44">
-        <v>46</v>
+        <v>116</v>
       </c>
       <c r="N44">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="O44">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="P44" t="b">
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>3155</v>
+        <v>5049</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="K45">
-        <v>0.008366256100395073</v>
+        <v>0.01159823706796567</v>
       </c>
       <c r="L45">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="M45">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="N45">
-        <v>0.59</v>
+        <v>0.75</v>
       </c>
       <c r="O45">
-        <v>0.41</v>
+        <v>0.25</v>
       </c>
       <c r="P45" t="b">
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>4267</v>
+        <v>4261</v>
       </c>
     </row>
   </sheetData>
